--- a/application/views/rpt/ru/doc/schet.xlsx
+++ b/application/views/rpt/ru/doc/schet.xlsx
@@ -134,9 +134,6 @@
     <t>КПП {$v-&gt;a-&gt;company_vat_licence_id}</t>
   </si>
   <si>
-    <t xml:space="preserve">{$v-&gt;a-&gt;company_bank_code} </t>
-  </si>
-  <si>
     <t xml:space="preserve">{$v-&gt;a-&gt;company_bank_corr_account} </t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>В том числе НДС: {$v-&gt;doc_view-&gt;vat_spell}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{$v-&gt;a-&gt;company_bank_id} </t>
   </si>
 </sst>
 </file>
@@ -194,8 +194,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="172" formatCode="0;\-0;\-"/>
-    <numFmt numFmtId="173" formatCode="0.00;\-0.00;\-"/>
+    <numFmt numFmtId="164" formatCode="0;\-0;\-"/>
+    <numFmt numFmtId="165" formatCode="0.00;\-0.00;\-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -557,6 +557,21 @@
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -581,12 +596,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -602,7 +618,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -620,11 +636,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -632,9 +645,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -644,22 +654,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -669,11 +674,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -956,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -983,534 +983,534 @@
   <sheetData>
     <row r="1" spans="2:18" ht="409.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
     </row>
     <row r="3" spans="2:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
     </row>
     <row r="4" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="6" t="s">
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-    </row>
-    <row r="6" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8" t="s">
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+    </row>
+    <row r="7" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+    </row>
+    <row r="8" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-    </row>
-    <row r="7" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-    </row>
-    <row r="8" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
     </row>
     <row r="9" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
     </row>
     <row r="10" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
     </row>
     <row r="11" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:18" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
+      <c r="B12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
     </row>
     <row r="13" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+    </row>
+    <row r="15" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-    </row>
-    <row r="15" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22" t="s">
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+    </row>
+    <row r="16" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+    </row>
+    <row r="17" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L17" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+    </row>
+    <row r="18" spans="2:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="R18" s="26"/>
+    </row>
+    <row r="19" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="R19" s="35"/>
+    </row>
+    <row r="20" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-    </row>
-    <row r="16" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-    </row>
-    <row r="17" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L17" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-    </row>
-    <row r="18" spans="2:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="R18" s="27"/>
-    </row>
-    <row r="19" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="R19" s="31"/>
-    </row>
-    <row r="20" spans="2:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="32" t="s">
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34" t="s">
+      <c r="I20" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="32" t="s">
+      <c r="J20" s="36"/>
+      <c r="K20" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="32"/>
-      <c r="K20" s="35" t="s">
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="36" t="s">
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36" t="s">
+      <c r="R20" s="32"/>
+    </row>
+    <row r="21" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H21" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="Q21" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="R20" s="36"/>
-    </row>
-    <row r="21" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H21" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="Q21" s="37" t="s">
+      <c r="R21" s="40"/>
+    </row>
+    <row r="22" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="Q22" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="R21" s="37"/>
-    </row>
-    <row r="22" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H22" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="Q22" s="37" t="s">
+      <c r="R22" s="40"/>
+    </row>
+    <row r="23" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="R22" s="37"/>
-    </row>
-    <row r="23" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H23" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="39" t="s">
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+    </row>
+    <row r="24" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-    </row>
-    <row r="24" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="40" t="s">
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+    </row>
+    <row r="25" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-    </row>
-    <row r="25" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
     </row>
     <row r="26" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="41" t="s">
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
     </row>
     <row r="28" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
     </row>
     <row r="29" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="41" t="s">
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
     </row>
     <row r="30" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
     </row>
     <row r="31" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I31" s="45" t="s">
+      <c r="I31" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1521,11 +1521,6 @@
     <mergeCell ref="G29:L29"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="J30:L30"/>
-    <mergeCell ref="B24:R24"/>
-    <mergeCell ref="B25:R25"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="G27:L27"/>
     <mergeCell ref="G28:L28"/>
     <mergeCell ref="H21:O21"/>
     <mergeCell ref="Q21:R21"/>
@@ -1533,11 +1528,11 @@
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="H23:N23"/>
     <mergeCell ref="O23:R23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="B24:R24"/>
+    <mergeCell ref="B25:R25"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="G27:L27"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:G19"/>
@@ -1545,11 +1540,11 @@
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="N19:P19"/>
     <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:P20"/>
     <mergeCell ref="Q18:R18"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:R14"/>
@@ -1557,11 +1552,11 @@
     <mergeCell ref="E15:R15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="L17:R17"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:Q10"/>
-    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:P18"/>
     <mergeCell ref="B12:R12"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="K7:L7"/>
@@ -1570,6 +1565,11 @@
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:Q10"/>
+    <mergeCell ref="C10:I10"/>
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="B3:R3"/>
     <mergeCell ref="C4:Q4"/>

--- a/application/views/rpt/ru/doc/schet.xlsx
+++ b/application/views/rpt/ru/doc/schet.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wamp\www\isell3\application\views\rpt\ru\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="7455" windowHeight="6240"/>
   </bookViews>
   <sheets>
     <sheet name="Счет" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>Образец заполнения платежного поручения:</t>
   </si>
@@ -156,9 +151,6 @@
     <t>{$v-&gt;rows[]-&gt;product_sum}&lt;merge2&gt;</t>
   </si>
   <si>
-    <t>{$v-&gt;footer-&gt;vatless}</t>
-  </si>
-  <si>
     <t>{$v-&gt;footer-&gt;vat}</t>
   </si>
   <si>
@@ -174,9 +166,6 @@
     <t xml:space="preserve">{$v-&gt;a-&gt;company_bank_id} </t>
   </si>
   <si>
-    <t>Итого НДС</t>
-  </si>
-  <si>
     <t>Руководитель</t>
   </si>
   <si>
@@ -184,6 +173,9 @@
   </si>
   <si>
     <t>{$v-&gt;accountant_name}</t>
+  </si>
+  <si>
+    <t>В том числе НДС 18%</t>
   </si>
 </sst>
 </file>
@@ -580,13 +572,123 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -600,118 +702,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,7 +765,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -808,7 +800,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -985,7 +977,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -995,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23:R23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1022,541 +1014,541 @@
   <sheetData>
     <row r="1" spans="2:18" ht="409.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="2:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
     </row>
     <row r="4" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
     </row>
     <row r="5" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="39" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
     </row>
     <row r="6" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="50"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="40" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="28" t="s">
         <v>2</v>
       </c>
       <c r="K6" s="29"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="53" t="s">
+      <c r="L6" s="30"/>
+      <c r="M6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
     </row>
     <row r="7" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
     </row>
     <row r="8" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="40" t="s">
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="28" t="s">
         <v>4</v>
       </c>
       <c r="K8" s="29"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="53" t="s">
+      <c r="L8" s="30"/>
+      <c r="M8" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
     </row>
     <row r="9" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
     </row>
     <row r="10" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="46"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
     </row>
     <row r="11" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:18" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
     </row>
     <row r="13" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="23" t="s">
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
     </row>
     <row r="15" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="23" t="s">
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
     </row>
     <row r="16" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
     </row>
     <row r="17" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
     </row>
     <row r="18" spans="2:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26" t="s">
+      <c r="C18" s="39"/>
+      <c r="D18" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26" t="s">
+      <c r="J18" s="40"/>
+      <c r="K18" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26" t="s">
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="22" t="s">
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="R18" s="22"/>
+      <c r="R18" s="35"/>
     </row>
     <row r="19" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17" t="s">
+      <c r="C19" s="42"/>
+      <c r="D19" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
       <c r="H19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17" t="s">
+      <c r="J19" s="43"/>
+      <c r="K19" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17" t="s">
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="18" t="s">
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="R19" s="18"/>
+      <c r="R19" s="44"/>
     </row>
     <row r="20" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20" t="s">
+      <c r="C20" s="45"/>
+      <c r="D20" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
       <c r="H20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="21" t="s">
+      <c r="J20" s="45"/>
+      <c r="K20" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="15" t="s">
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15" t="s">
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="R20" s="15"/>
+      <c r="R20" s="41"/>
     </row>
     <row r="21" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="Q21" s="11" t="s">
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="Q21" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="R21" s="49"/>
+    </row>
+    <row r="22" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="Q22" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="R21" s="11"/>
-    </row>
-    <row r="22" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="Q22" s="11" t="s">
+      <c r="R22" s="49"/>
+    </row>
+    <row r="23" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="R22" s="11"/>
-    </row>
-    <row r="23" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H23" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="13" t="s">
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+    </row>
+    <row r="24" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-    </row>
-    <row r="24" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="14" t="s">
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+    </row>
+    <row r="25" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-    </row>
-    <row r="25" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
     </row>
     <row r="26" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+    </row>
+    <row r="28" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+    </row>
+    <row r="29" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-    </row>
-    <row r="28" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-    </row>
-    <row r="29" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
     </row>
     <row r="30" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
     </row>
     <row r="31" spans="2:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I31" s="5" t="s">
@@ -1565,24 +1557,35 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B5:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="M8:R10"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="B3:R3"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R7"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="B24:R24"/>
+    <mergeCell ref="B25:R25"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:P20"/>
     <mergeCell ref="Q18:R18"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:R14"/>
@@ -1595,35 +1598,24 @@
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="N18:P18"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="H23:N23"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="B24:R24"/>
-    <mergeCell ref="B25:R25"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B3:R3"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R7"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B5:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="M8:R10"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
